--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,37 +1,320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>ENERGY STAR program website</t>
+  </si>
+  <si>
+    <t>undated</t>
+  </si>
+  <si>
+    <t>Model Subscript</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Source (Residential)</t>
+  </si>
+  <si>
+    <t>Source (Commercial)</t>
+  </si>
+  <si>
+    <t>central AC</t>
+  </si>
+  <si>
+    <t>room AC</t>
+  </si>
+  <si>
+    <t>boiler</t>
+  </si>
+  <si>
+    <t>ventilating fans</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>ceiling fans</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_central</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_room</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/boilers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/fans_ventilating</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/furnaces</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_air_source</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_geothermal</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/fans_ceiling</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/residential_windows_doors_and_skylights</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/roof_products</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>same as residential</t>
+  </si>
+  <si>
+    <t>go to the same product info pages as the links on the "For Your Home" tab</t>
+  </si>
+  <si>
+    <t>(and which are labeled "for Consumers").  We assume that the same</t>
+  </si>
+  <si>
+    <t>specifications apply to businesses/government and to consumers in</t>
+  </si>
+  <si>
+    <t>these cases.</t>
+  </si>
+  <si>
+    <t>For many products, the links on the "Business &amp; Government" tab</t>
+  </si>
+  <si>
+    <t>Residential ENERGY STAR % Improvement vs Std</t>
+  </si>
+  <si>
+    <t>Commercial ENERGY STAR % Improvement vs Std</t>
+  </si>
+  <si>
+    <t>heat pump (air-source)</t>
+  </si>
+  <si>
+    <t>heat pump (geothermal)</t>
+  </si>
+  <si>
+    <t>windows, doors, skylights</t>
+  </si>
+  <si>
+    <t>roof products</t>
+  </si>
+  <si>
     <t>lighting</t>
   </si>
   <si>
+    <t>light bulbs</t>
+  </si>
+  <si>
+    <t>lighting Average</t>
+  </si>
+  <si>
     <t>appliances</t>
   </si>
   <si>
+    <t>clothes washer</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>air cleaner/purifier</t>
+  </si>
+  <si>
+    <t>water cooler</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>cable box</t>
+  </si>
+  <si>
+    <t>audio/video</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>vending maching</t>
+  </si>
+  <si>
+    <t>ice machine</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/clothes_washers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_dishwashers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/freezers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_refrigerators_freezers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/refrigerators</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_purifiers_cleaners</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/water_coolers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/computers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/set_top_boxes_cable_boxes</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/audiovideo</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/televisions</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_ovens</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/vending_machines</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_ice_makers</t>
+  </si>
+  <si>
+    <t>commercial oven</t>
+  </si>
+  <si>
+    <t>see calculation 1</t>
+  </si>
+  <si>
+    <t>Standard:</t>
+  </si>
+  <si>
+    <t>kWh/yr</t>
+  </si>
+  <si>
+    <t>ENERGY STAR:</t>
+  </si>
+  <si>
+    <t>http://www1.eere.energy.gov/buildings/appliance_standards/product.aspx/productid/67</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/specs/sites/products/files/ENERGY%20STAR%20Draft%201%20Version%206.0%20Residential%20Dishwasher%20Webinar.pdf</t>
+  </si>
+  <si>
+    <t>% Improvement</t>
+  </si>
+  <si>
+    <t>appliances Average</t>
+  </si>
+  <si>
+    <t>see calculation 2</t>
+  </si>
+  <si>
+    <t>Cells colors in yellow are centerpoints of ranges given on the</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
+    <t>pool pump</t>
+  </si>
+  <si>
+    <t>imaging equipment</t>
+  </si>
+  <si>
+    <t>battery chargers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/pool_pumps</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/imaging_equipment</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/battery_chargers?fuseaction=find_a_product.showProductGroup&amp;pgw_code=BCH</t>
+  </si>
+  <si>
+    <t>Model incandescent bulb</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ENERGY STAR CFL</t>
+  </si>
+  <si>
+    <t>http://energystar.supportportal.com/link/portal/23002/23018/Article/24835/I-hear-incandescent-light-bulbs-are-being-phased-out-Is-that-true</t>
+  </si>
+  <si>
+    <t>Calculation 2: Residential Dishwashers</t>
+  </si>
+  <si>
+    <t>Calculation 1: Lighting</t>
+  </si>
+  <si>
+    <t>Standard (Jan 1 2013)</t>
+  </si>
+  <si>
+    <t>other Average</t>
+  </si>
+  <si>
+    <t>ENERGY STAR website.  You may see the range by looking at</t>
+  </si>
+  <si>
+    <t>the cell formula.</t>
+  </si>
+  <si>
+    <t>Certified Products</t>
+  </si>
+  <si>
     <t>PEUDfSbQL Perc E Use Difference from Std by Quality Level</t>
   </si>
   <si>
+    <t>See "Data" tab for URLs for specific products</t>
+  </si>
+  <si>
     <t>cooling and ventilation</t>
   </si>
   <si>
@@ -41,6 +324,15 @@
     <t>heating</t>
   </si>
   <si>
+    <t>heating Average</t>
+  </si>
+  <si>
+    <t>cooling and ventilation Average</t>
+  </si>
+  <si>
+    <t>envelope Average</t>
+  </si>
+  <si>
     <t>Commercial</t>
   </si>
   <si>
@@ -50,20 +342,37 @@
     <t>Rural Residential</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Only one quality tier for building components is used in the Indonesia model.</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable reflects the difference in energy use between</t>
+  </si>
+  <si>
+    <t>rebate-qualifying components and the component</t>
+  </si>
+  <si>
+    <t>standard.</t>
+  </si>
+  <si>
+    <t>Percent Difference in E Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +396,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,33 +446,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,52 +833,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -478,6 +940,847 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="27">
+        <f>AVERAGE(0.12,0.16)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="12">
+        <f>AVERAGE(D2:D3)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>AVERAGE(C6:C11)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="D12" s="11">
+        <f>AVERAGE(D6:D11)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="27">
+        <f>AVERAGE(0.07,0.15)</f>
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="27">
+        <f>AVERAGE(0.07,0.15)</f>
+        <v>0.11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="28">
+        <f>AVERAGE(0.1,0.15)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D15" s="28">
+        <f>AVERAGE(0.1,0.15)</f>
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
+        <f>AVERAGE(C14:C15)</f>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D16" s="11">
+        <f>AVERAGE(D14:D15)</f>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12">
+        <f>AVERAGE(C18:C18)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D19" s="12">
+        <f>AVERAGE(D18:D18)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12">
+        <f>AVERAGE(C21:C29)</f>
+        <v>0.21399999999999997</v>
+      </c>
+      <c r="D30" s="12">
+        <f>AVERAGE(D21:D29)</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="29">
+        <f>AVERAGE(0.3,0.72)</f>
+        <v>0.51</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="29">
+        <f>AVERAGE(0.4,0.55)</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="D33" s="29">
+        <f>AVERAGE(0.4,0.55)</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="26">
+        <f>AVERAGE(0.3,0.65)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D35" s="26">
+        <f>AVERAGE(0.3,0.65)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="37">
+        <f>AVERAGE(0.45,0.6)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D37" s="37">
+        <f>AVERAGE(0.45,0.6)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12">
+        <f>AVERAGE(C32:C38)</f>
+        <v>0.42642857142857149</v>
+      </c>
+      <c r="D39" s="12">
+        <f>AVERAGE(D32:D38)</f>
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E38" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="F27" r:id="rId21"/>
+    <hyperlink ref="F28" r:id="rId22"/>
+    <hyperlink ref="F29" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19 C19" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="20">
+        <v>75</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="20">
+        <v>53</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20">
+        <f>0.3*B2</f>
+        <v>22.5</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="38">
+        <f>(B3-B4)/B3</f>
+        <v>0.57547169811320753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="20">
+        <v>355</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="20">
+        <v>295</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="39">
+        <f>(B8-B9)/B8</f>
+        <v>0.16901408450704225</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -485,106 +1788,127 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
+      <c r="A2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="40">
+        <f>-Data!C4</f>
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="40">
+        <f>B2</f>
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="40">
+        <f>-Data!D4</f>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
+      <c r="A3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="40">
+        <f>-Data!C12</f>
+        <v>-0.35666666666666669</v>
+      </c>
+      <c r="C3" s="40">
+        <f t="shared" ref="C3:C7" si="0">B3</f>
+        <v>-0.35666666666666669</v>
+      </c>
+      <c r="D3" s="40">
+        <f>-Data!D12</f>
+        <v>-0.43333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
+      <c r="A4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="40">
+        <f>-Data!C16</f>
+        <v>-0.11749999999999999</v>
+      </c>
+      <c r="C4" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.11749999999999999</v>
+      </c>
+      <c r="D4" s="40">
+        <f>-Data!D16</f>
+        <v>-0.11749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
+      <c r="A5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="40">
+        <f>-Data!C19</f>
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="C5" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D5" s="40">
+        <f>-Data!D19</f>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
+      <c r="A6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="40">
+        <f>-Data!C30</f>
+        <v>-0.21399999999999997</v>
+      </c>
+      <c r="C6" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.21399999999999997</v>
+      </c>
+      <c r="D6" s="40">
+        <f>-Data!D30</f>
+        <v>-0.35250000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
+      <c r="A7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="40">
+        <f>-Data!C39</f>
+        <v>-0.42642857142857149</v>
+      </c>
+      <c r="C7" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.42642857142857149</v>
+      </c>
+      <c r="D7" s="40">
+        <f>-Data!D39</f>
+        <v>-0.41250000000000003</v>
       </c>
     </row>
   </sheetData>
